--- a/biology/Botanique/Spondias_purpurea/Spondias_purpurea.xlsx
+++ b/biology/Botanique/Spondias_purpurea/Spondias_purpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prunier d'Espagne (Spondias purpurea) est un arbre fruitier tropical américain de la famille des Anacardiaceae. Également connue sous le nom de mombin rouge, cirouelle, "jocote" ou "jobo", l'espèce originaire d'Amérique centrale et d'Amérique du Sud est largement cultivée dans toute la région pour ses fruits comestibles.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre à feuilles caduques, de 3 à 8 m de haut, avec un diamètre à hauteur de poitrine pouvant atteindre 80 cm. Tronc court qui se ramifie à partir de 1 m de haut. Branches épaisses, tordues et cassantes. Son écorce est rugueuse, gris plomb à brun verdâtre, avec parfois des fissures irrégulières et de petites ou parfois très grosses bosses à texture de liège, qui peuvent même être confondues avec des épines.
 Feuilles alternes, composées de folioles elliptiques, au nombre de 9 à 25, insérées de part et d'autre du pétiole, au bord légèrement ondulé.
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de Spondias purpurea est relativement facile, car l'arbre est peu exigeant en termes de sol et de climat. Il peut être cultivé dans des régions tropicales à une altitude allant jusqu'à 1000 mètres, et il est capable de résister à des conditions de sécheresse et de sols pauvres. Les arbres sont généralement plantés à une densité de 100 à 200 arbres par hectare, et ils commencent à produire des fruits après environ 4 à 5 ans.
 Sa multiplication se fait par graines. 
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente du Mexique jusqu'au Brésil(où on l'appelle ciriguela) et au Pérou, en passant par le Panama.
 L'arbre a été introduit aux Bahamas et sur d'autres îles des Caraïbes, où il s'est naturalisé. Le même processus s'est produit aux Philippines.
@@ -610,7 +628,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On consomme ses fruits : les prunes d'Espagne ou mombins rouges ; ce sont des drupes rouge-verdâtre ovoïdes, de la taille d'un petit citron. Il existe une variété à petits fruits jaunes, Spondias purpurea var. lutea, la prune du Chili.
 Les fruits de Spondias purpurea sont souvent consommés frais, mais peuvent également être utilisés pour faire des jus, des confitures et des conserves.
